--- a/Zimmerer_order_integral.xlsx
+++ b/Zimmerer_order_integral.xlsx
@@ -1171,6 +1171,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1254,18 +1255,18 @@
   </sheetPr>
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K69" activeCellId="0" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.95"/>
@@ -3443,6 +3444,9 @@
       <c r="J68" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="K68" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -3506,9 +3510,6 @@
       </c>
       <c r="J70" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
